--- a/МатрицаКомпетенцией1С.xlsx
+++ b/МатрицаКомпетенцией1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!Данные\ОСень\competencies-1c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1FA36AD-4C59-4D7A-AB05-0FDCFD0C6592}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3B0C0A-DE6C-4DFE-A633-81106084BD77}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{3E4609B7-465A-4A28-8205-A1FBDC677D41}"/>
   </bookViews>
@@ -787,7 +787,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -814,6 +814,9 @@
       </c>
       <c r="E1" s="4" t="s">
         <v>82</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">

--- a/МатрицаКомпетенцией1С.xlsx
+++ b/МатрицаКомпетенцией1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!Данные\ОСень\competencies-1c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3B0C0A-DE6C-4DFE-A633-81106084BD77}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236AF020-C73E-457F-8BFF-88ACE3BE57A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{3E4609B7-465A-4A28-8205-A1FBDC677D41}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Справочники" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Общее!$A$1:$F$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Общее!$A$1:$E$66</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="106">
   <si>
     <t>Направление</t>
   </si>
@@ -312,9 +312,6 @@
   </si>
   <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>девопс</t>
   </si>
   <si>
     <t>Навыки эффективного общения, включая слушание, говорение, написание и презентацию.</t>
@@ -783,11 +780,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E50F1C0-3885-4994-A1B9-2B4061D5CCD8}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -799,12 +796,12 @@
     <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -815,11 +812,8 @@
       <c r="E1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -835,9 +829,8 @@
       <c r="E2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -853,9 +846,8 @@
       <c r="E3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -871,9 +863,8 @@
       <c r="E4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -887,9 +878,8 @@
       <c r="E5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -903,9 +893,8 @@
       <c r="E6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -919,9 +908,8 @@
       <c r="E7" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -935,9 +923,8 @@
       <c r="E8" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -951,9 +938,8 @@
       <c r="E9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -967,9 +953,8 @@
       <c r="E10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -983,9 +968,8 @@
       <c r="E11" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -999,9 +983,8 @@
       <c r="E12" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1013,9 +996,8 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1031,9 +1013,8 @@
       <c r="E14" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1047,9 +1028,8 @@
       <c r="E15" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -1065,9 +1045,8 @@
       <c r="E16" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -1083,9 +1062,8 @@
       <c r="E17" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -1099,9 +1077,8 @@
       <c r="E18" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -1115,9 +1092,8 @@
       <c r="E19" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -1133,9 +1109,8 @@
       <c r="E20" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -1149,9 +1124,8 @@
       <c r="E21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
@@ -1165,9 +1139,8 @@
       <c r="E22" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
@@ -1181,9 +1154,8 @@
       <c r="E23" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -1197,9 +1169,8 @@
       <c r="E24" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
@@ -1213,9 +1184,8 @@
       <c r="E25" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
@@ -1229,9 +1199,8 @@
       <c r="E26" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
@@ -1245,11 +1214,8 @@
       <c r="E27" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>30</v>
       </c>
@@ -1263,11 +1229,8 @@
       <c r="E28" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
@@ -1279,9 +1242,8 @@
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
@@ -1295,9 +1257,8 @@
       <c r="E30" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
@@ -1311,9 +1272,8 @@
       <c r="E31" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>30</v>
       </c>
@@ -1327,9 +1287,8 @@
       <c r="E32" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>30</v>
       </c>
@@ -1341,9 +1300,8 @@
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>30</v>
       </c>
@@ -1355,9 +1313,8 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>30</v>
       </c>
@@ -1371,9 +1328,8 @@
       <c r="E35" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>41</v>
       </c>
@@ -1387,9 +1343,8 @@
       <c r="E36" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>41</v>
       </c>
@@ -1403,9 +1358,8 @@
       <c r="E37" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>44</v>
       </c>
@@ -1419,9 +1373,8 @@
       <c r="E38" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>46</v>
       </c>
@@ -1433,9 +1386,8 @@
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>49</v>
       </c>
@@ -1451,9 +1403,8 @@
       <c r="E40" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>49</v>
       </c>
@@ -1467,9 +1418,8 @@
       <c r="E41" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>52</v>
       </c>
@@ -1481,9 +1431,8 @@
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>52</v>
       </c>
@@ -1495,9 +1444,8 @@
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>52</v>
       </c>
@@ -1509,9 +1457,8 @@
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>56</v>
       </c>
@@ -1523,9 +1470,8 @@
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>56</v>
       </c>
@@ -1537,9 +1483,8 @@
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>56</v>
       </c>
@@ -1551,9 +1496,8 @@
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>48</v>
       </c>
@@ -1565,9 +1509,8 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
@@ -1579,9 +1522,8 @@
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>48</v>
       </c>
@@ -1593,9 +1535,8 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>48</v>
       </c>
@@ -1607,9 +1548,8 @@
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>48</v>
       </c>
@@ -1621,9 +1561,8 @@
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>48</v>
       </c>
@@ -1635,9 +1574,8 @@
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>60</v>
       </c>
@@ -1651,9 +1589,8 @@
       <c r="E54" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>60</v>
       </c>
@@ -1665,9 +1602,8 @@
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>60</v>
       </c>
@@ -1681,147 +1617,136 @@
       <c r="E56" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="7"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/МатрицаКомпетенцией1С.xlsx
+++ b/МатрицаКомпетенцией1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!Данные\ОСень\competencies-1c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236AF020-C73E-457F-8BFF-88ACE3BE57A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B41CFC-63FD-4C5B-A7EE-4FDEF52EBDD3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{3E4609B7-465A-4A28-8205-A1FBDC677D41}"/>
   </bookViews>
@@ -55,9 +55,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="106">
   <si>
-    <t>Направление</t>
-  </si>
-  <si>
     <t>Компетенция</t>
   </si>
   <si>
@@ -375,6 +372,9 @@
   </si>
   <si>
     <t>Группа</t>
+  </si>
+  <si>
+    <t>Область</t>
   </si>
 </sst>
 </file>
@@ -784,7 +784,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -798,952 +798,952 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D16" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="D20" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="D40" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -1784,26 +1784,26 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
